--- a/DSA.xlsx
+++ b/DSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyanshsingh/Desktop/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F8BEC5-EAF3-4D43-9EAA-901028AE9FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832DA7B-3F0D-D744-96C2-8BCE1F8B292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="34480" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="500" windowWidth="32120" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{09C4CF69-8B6A-4B16-9BCD-A63BACDF8F99}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{3515339C-7FAE-46B8-ADE5-8D582B3D5B62}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{90561DA9-B546-40E3-9A4E-C513D03181D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{6F525521-91BA-459B-BE5F-686EF303DC9A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{90561DA9-B546-40E3-9A4E-C513D03181D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{3515339C-7FAE-46B8-ADE5-8D582B3D5B62}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{09C4CF69-8B6A-4B16-9BCD-A63BACDF8F99}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2152,7 +2152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2335,8 +2335,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2396,6 +2401,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2410,7 +2421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2522,7 +2533,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2748,7 +2766,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3108,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="43"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3142,7 +3160,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="43"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3178,7 +3196,7 @@
       <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3212,7 +3230,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="43"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3280,7 +3298,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -3314,7 +3332,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3452,7 +3470,7 @@
       <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4054,7 +4072,7 @@
         <v>65</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4088,7 +4106,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4929,7 +4947,7 @@
       <c r="C66" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="46"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -30615,21 +30633,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3515339C-7FAE-46B8-ADE5-8D582B3D5B62}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6F525521-91BA-459B-BE5F-686EF303DC9A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{AC7D2190-45C7-3344-A696-9CAAF421A24E}"/>
+      <autoFilter ref="A293:C332" xr:uid="{84E17E5A-D96C-D749-B076-65FF7B6CDB57}"/>
+    </customSheetView>
+    <customSheetView guid="{09C4CF69-8B6A-4B16-9BCD-A63BACDF8F99}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{73143E4E-A17D-D84B-9BDE-5B3C77860DFF}"/>
     </customSheetView>
     <customSheetView guid="{90561DA9-B546-40E3-9A4E-C513D03181D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{2D3D4B7F-535C-D943-A5B5-6652974B6756}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C3D530ED-A969-7944-8A69-53B897D4992D}"/>
     </customSheetView>
-    <customSheetView guid="{09C4CF69-8B6A-4B16-9BCD-A63BACDF8F99}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3515339C-7FAE-46B8-ADE5-8D582B3D5B62}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{C3A55A82-C92A-7745-8AEC-8EA6C95303FC}"/>
-    </customSheetView>
-    <customSheetView guid="{6F525521-91BA-459B-BE5F-686EF303DC9A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{DAE1A223-4D11-F145-B0BE-7B01A4F94DC3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{B11E75E6-22E6-3249-AA70-04A40810F5CB}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31062,12 +31080,12 @@
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -31076,7 +31094,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -31085,7 +31103,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -31094,12 +31112,12 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>10</v>
       </c>
@@ -31110,7 +31128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -31177,7 +31195,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>171</v>
       </c>
@@ -31185,7 +31203,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>171</v>
       </c>
@@ -31193,15 +31211,15 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="38"/>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>205</v>
       </c>
@@ -31209,7 +31227,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>205</v>
       </c>
@@ -31217,7 +31235,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>205</v>
       </c>
@@ -31225,7 +31243,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>205</v>
       </c>
@@ -31233,7 +31251,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>205</v>
       </c>
@@ -31241,15 +31259,15 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="38"/>
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="38"/>
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>255</v>
       </c>
@@ -31257,7 +31275,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>255</v>
       </c>
@@ -31265,7 +31283,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>255</v>
       </c>
@@ -31273,7 +31291,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>255</v>
       </c>
@@ -31281,7 +31299,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>303</v>
       </c>
@@ -31289,7 +31307,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>303</v>
       </c>
@@ -31297,11 +31315,11 @@
         <v>680</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="38"/>
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>336</v>
       </c>
@@ -31309,7 +31327,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>336</v>
       </c>
@@ -31317,15 +31335,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="38"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="38"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>396</v>
       </c>
@@ -31333,15 +31351,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="38"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="38"/>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>431</v>
       </c>
@@ -31349,7 +31367,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>431</v>
       </c>
@@ -31357,7 +31375,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>431</v>
       </c>
@@ -31365,7 +31383,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>431</v>
       </c>
@@ -31373,7 +31391,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>431</v>
       </c>
@@ -31381,11 +31399,11 @@
         <v>688</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="38"/>
       <c r="B58" s="14"/>
     </row>
